--- a/Main/bin/Debug/Sample.xlsx
+++ b/Main/bin/Debug/Sample.xlsx
@@ -1,56 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr fullPrecision="1" calcMode="auto" calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="SpreadsheetLight"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:calcPr calcId="152511"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Valery Pyzhik</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <t>Some comment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <t>Some comment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <t>Some comment</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
+<file path=xl/comments.xml><?xml version="1.0" encoding="utf-8"?>
+<x:comments xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:authors>
+    <x:author>Valery Pyzhik</x:author>
+  </x:authors>
+  <x:commentList>
+    <x:comment ref="A3" authorId="0">
+      <x:text>
+        <x:t>Some comment</x:t>
+      </x:text>
+    </x:comment>
+  </x:commentList>
+</x:comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Album</t>
   </si>
@@ -85,73 +74,61 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \( #,##0\ );_(&quot;$&quot;* &quot;-&quot;_);_( @_ )"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \( #,##0\ );_(* &quot;-&quot;_);_( @_ )"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \( #,##0.00\ );_(&quot;$&quot;* &quot;-&quot;??_);_( @_ )"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \( #,##0.00\ );_(* &quot;-&quot;??_);_( @_ )"/>
-  </numFmts>
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="3">
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:fonts count="1" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="3">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="darkGrid">
+        <x:fgColor rgb="FFFF0000"/>
+        <x:bgColor rgb="FFFF0000"/>
+      </x:patternFill>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:dxfs count="0"/>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,92 +393,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" baseColWidth="0"/>
-  <sheetData>
-    <row r="1" spans="1:3" s="1" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" s="1" ht="15">
-      <c r="A2" s="1">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" ht="15">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" ht="15">
-      <c r="A4" s="1">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="1" ht="15">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="1" ht="15">
-      <c r="A6" s="1">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="1" ht="15">
-      <c r="A7" s="1">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="1" ht="15">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" ht="15">
-      <c r="A9" s="1">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:B9"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F6" sqref="F6:F7"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" s="2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:legacyDrawing r:id="R5103a8b568014913"/>
+</x:worksheet>
 </file>